--- a/meta/api/BlancoApiSample.xlsx
+++ b/meta/api/BlancoApiSample.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4180" yWindow="760" windowWidth="21420" windowHeight="14880" tabRatio="860" activeTab="8"/>
+    <workbookView xWindow="2560" yWindow="460" windowWidth="21420" windowHeight="14880" tabRatio="860" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="process" sheetId="19" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="238">
   <si>
     <t>項目名</t>
     <rPh sb="0" eb="3">
@@ -1694,32 +1694,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>blancoRestPhpのサンプルAPIです。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>blancoRestPhpのサンプルAPIの要求電文です。</t>
-    <rPh sb="22" eb="24">
-      <t>ヨウキュウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>デンブン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>オブジェクト (xsd:object)</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>パッケージ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>blancoRestPhpのサンプルAPIの応答電文です。</t>
-    <rPh sb="22" eb="24">
-      <t>オウトウ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -2167,30 +2146,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>BlancoObjectSample</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>array&lt;BlancoObjectSample&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>BlancoObjectSample</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>BlancoApiSampleGetResponse</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>BlancoObjectSample</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>BlancoObjectSample</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>BlancoApiSamplePostRequest</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -2199,14 +2158,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>BlancoObjectSample</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>array&lt;BlancoObjectSample&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>BlancoApiSamplePostResponse</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -2215,22 +2166,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>BlancoObjectSample</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>BlancoObjectSample</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>BlancoApiSamplePutRequest</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>array&lt;BlancoObjectSample&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>blanco.sample</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -2239,14 +2178,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>BlancoObjectSample</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>BlancoObjectSample</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>BlancoApiSampleDeleteRequest</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -2268,6 +2199,99 @@
   </si>
   <si>
     <t>BlancoApiSamplePostResponse</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>blancoRestのサンプルAPIです。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>blancoRestのサンプルAPIの要求電文です。</t>
+    <rPh sb="19" eb="21">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>デンブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ObjectSample</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ObjectSample</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>array&lt;ObjectSample&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>blancoRestのサンプルAPIの応答電文です。</t>
+    <rPh sb="19" eb="21">
+      <t>オウトウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ObjectSample</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ObjectSample</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ObjectSample</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>array&lt;ObjectSample&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ObjectSample</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ObjectSample</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ObjectSample</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ObjectSample</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>array&lt;ObjectSample&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ObjectSample</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ObjectSample</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ObjectSample</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>array&lt;ObjectSample&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ObjectSample</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ObjectSample</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2943,9 +2967,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2985,6 +3006,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3530,7 +3554,7 @@
   <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -3557,17 +3581,17 @@
         <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -3582,7 +3606,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="57" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C6" s="29"/>
     </row>
@@ -3591,86 +3615,86 @@
         <v>88</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>107</v>
+        <v>217</v>
       </c>
       <c r="C7" s="61"/>
       <c r="D7" s="61"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B8" s="58" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C8" s="29"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B9" s="58" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C9" s="29"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="105" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B10" s="58" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C10" s="29"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="105" t="s">
-        <v>184</v>
-      </c>
-      <c r="B11" s="110" t="s">
-        <v>231</v>
+        <v>181</v>
+      </c>
+      <c r="B11" s="124" t="s">
+        <v>216</v>
       </c>
       <c r="C11" s="29"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="105" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B12" s="58" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C12" s="29"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="105" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B13" s="58" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C13" s="29"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="105" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B14" s="58" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C14" s="29"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="105" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B15" s="58" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C15" s="29"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="105" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B16" s="106"/>
       <c r="C16" s="29"/>
@@ -3680,7 +3704,7 @@
         <v>26</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C17" s="29"/>
     </row>
@@ -3694,10 +3718,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C19" s="61"/>
       <c r="D19" s="61"/>
@@ -3707,7 +3731,7 @@
         <v>27</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C20" s="61"/>
       <c r="D20" s="61"/>
@@ -3728,11 +3752,11 @@
       <c r="A23" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="111" t="s">
+      <c r="B23" s="110" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="112"/>
-      <c r="D23" s="113"/>
+      <c r="C23" s="111"/>
+      <c r="D23" s="112"/>
       <c r="E23" s="31" t="s">
         <v>74</v>
       </c>
@@ -3924,7 +3948,7 @@
   </headerFooter>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>config!$C$5:$C$6</xm:f>
@@ -3960,7 +3984,7 @@
         <v>30</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -4301,7 +4325,7 @@
       <c r="C1" s="43"/>
       <c r="D1" s="43"/>
       <c r="F1" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -4323,10 +4347,10 @@
         <v>13</v>
       </c>
       <c r="D4" s="45" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E4" s="45" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -4337,10 +4361,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E5" s="8"/>
     </row>
@@ -4353,10 +4377,10 @@
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="49" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E6" s="73" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -4365,10 +4389,10 @@
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="50" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E7" s="49" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -4376,10 +4400,10 @@
         <v>21</v>
       </c>
       <c r="D8" s="50" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E8" s="50" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -4405,7 +4429,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B13" s="50" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
@@ -4489,8 +4513,8 @@
   </sheetPr>
   <dimension ref="A1:R48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -4527,7 +4551,7 @@
         <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
@@ -4557,7 +4581,7 @@
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="59" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D6" s="37"/>
       <c r="E6" s="61"/>
@@ -4570,7 +4594,7 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="59" t="s">
-        <v>108</v>
+        <v>218</v>
       </c>
       <c r="D7" s="37"/>
       <c r="E7" s="61"/>
@@ -4596,11 +4620,11 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="90" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D9" s="104"/>
       <c r="E9" s="61"/>
@@ -4609,7 +4633,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="63" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="59"/>
@@ -4619,7 +4643,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="63" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="59"/>
@@ -4629,7 +4653,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="63" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="59"/>
@@ -4639,7 +4663,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="63" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="59"/>
@@ -4649,7 +4673,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="63" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="90"/>
@@ -4659,7 +4683,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="63" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="90"/>
@@ -4669,7 +4693,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="63" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="90"/>
@@ -4679,11 +4703,11 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A17" s="63" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="59" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D17" s="37"/>
       <c r="E17" s="61"/>
@@ -4701,11 +4725,11 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="59" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="D19" s="37"/>
       <c r="E19" s="61"/>
@@ -4741,50 +4765,50 @@
       <c r="R22" s="41"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A23" s="114" t="s">
+      <c r="A23" s="113" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="114" t="s">
+      <c r="B23" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="116" t="s">
+      <c r="C23" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="114" t="s">
+      <c r="D23" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="119" t="s">
-        <v>193</v>
-      </c>
-      <c r="F23" s="114" t="s">
+      <c r="E23" s="118" t="s">
+        <v>190</v>
+      </c>
+      <c r="F23" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="114" t="s">
-        <v>128</v>
-      </c>
-      <c r="H23" s="117" t="s">
+      <c r="G23" s="113" t="s">
+        <v>125</v>
+      </c>
+      <c r="H23" s="116" t="s">
         <v>78</v>
       </c>
-      <c r="I23" s="118"/>
-      <c r="J23" s="117" t="s">
+      <c r="I23" s="117"/>
+      <c r="J23" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="K23" s="118"/>
+      <c r="K23" s="117"/>
       <c r="L23" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="M23" s="114" t="s">
+      <c r="M23" s="113" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A24" s="115"/>
-      <c r="B24" s="115"/>
-      <c r="C24" s="115"/>
-      <c r="D24" s="115"/>
-      <c r="E24" s="120"/>
-      <c r="F24" s="115"/>
-      <c r="G24" s="115"/>
+      <c r="A24" s="114"/>
+      <c r="B24" s="114"/>
+      <c r="C24" s="114"/>
+      <c r="D24" s="114"/>
+      <c r="E24" s="119"/>
+      <c r="F24" s="114"/>
+      <c r="G24" s="114"/>
       <c r="H24" s="31" t="s">
         <v>82</v>
       </c>
@@ -4800,7 +4824,7 @@
       <c r="L24" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="M24" s="115"/>
+      <c r="M24" s="114"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A25" s="7">
@@ -4813,11 +4837,11 @@
         <v>100</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E25" s="25"/>
       <c r="F25" s="92" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G25" s="25"/>
       <c r="H25" s="25">
@@ -4843,7 +4867,7 @@
         <v>102</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E26" s="26"/>
       <c r="F26" s="93"/>
@@ -4869,7 +4893,7 @@
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="27" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E27" s="27"/>
       <c r="F27" s="94"/>
@@ -4893,7 +4917,7 @@
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="27" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E28" s="89"/>
       <c r="F28" s="95"/>
@@ -4915,10 +4939,10 @@
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="27" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="F29" s="94"/>
       <c r="G29" s="27"/>
@@ -4928,7 +4952,7 @@
       <c r="K29" s="34"/>
       <c r="L29" s="34"/>
       <c r="M29" s="14" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.15">
@@ -4941,7 +4965,7 @@
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="27" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E30" s="27"/>
       <c r="F30" s="94"/>
@@ -4959,11 +4983,11 @@
         <v>7</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="27" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="E31" s="27"/>
       <c r="F31" s="94"/>
@@ -5290,7 +5314,7 @@
   <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -5327,7 +5351,7 @@
         <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
@@ -5356,7 +5380,7 @@
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="19" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D6" s="37"/>
       <c r="E6" s="61"/>
@@ -5368,7 +5392,7 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="59" t="s">
-        <v>111</v>
+        <v>222</v>
       </c>
       <c r="D7" s="37"/>
       <c r="E7" s="61"/>
@@ -5392,11 +5416,11 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="90" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D9" s="104"/>
       <c r="E9" s="61"/>
@@ -5405,11 +5429,11 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="63" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B10" s="65"/>
       <c r="C10" s="102" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D10" s="103"/>
       <c r="E10" s="61"/>
@@ -5425,11 +5449,11 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="59" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D12" s="37"/>
       <c r="E12" s="61"/>
@@ -5443,7 +5467,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="63" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B15" s="64"/>
       <c r="C15" s="64"/>
@@ -5459,85 +5483,85 @@
       <c r="M15" s="65"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A16" s="119" t="s">
+      <c r="A16" s="118" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" s="118" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16" s="118" t="s">
+        <v>110</v>
+      </c>
+      <c r="E16" s="118" t="s">
+        <v>190</v>
+      </c>
+      <c r="F16" s="118" t="s">
+        <v>149</v>
+      </c>
+      <c r="G16" s="118" t="s">
+        <v>148</v>
+      </c>
+      <c r="H16" s="120" t="s">
+        <v>131</v>
+      </c>
+      <c r="I16" s="121"/>
+      <c r="J16" s="122" t="s">
+        <v>132</v>
+      </c>
+      <c r="K16" s="121"/>
+      <c r="L16" s="66" t="s">
+        <v>133</v>
+      </c>
+      <c r="M16" s="118" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A17" s="123"/>
+      <c r="B17" s="123"/>
+      <c r="C17" s="68" t="s">
         <v>130</v>
       </c>
-      <c r="B16" s="119" t="s">
-        <v>131</v>
-      </c>
-      <c r="C16" s="67" t="s">
-        <v>132</v>
-      </c>
-      <c r="D16" s="119" t="s">
-        <v>113</v>
-      </c>
-      <c r="E16" s="119" t="s">
-        <v>193</v>
-      </c>
-      <c r="F16" s="119" t="s">
-        <v>152</v>
-      </c>
-      <c r="G16" s="119" t="s">
-        <v>151</v>
-      </c>
-      <c r="H16" s="121" t="s">
-        <v>134</v>
-      </c>
-      <c r="I16" s="122"/>
-      <c r="J16" s="123" t="s">
+      <c r="D17" s="123"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="123"/>
+      <c r="G17" s="123"/>
+      <c r="H17" s="69" t="s">
         <v>135</v>
       </c>
-      <c r="K16" s="122"/>
-      <c r="L16" s="66" t="s">
+      <c r="I17" s="69" t="s">
         <v>136</v>
       </c>
-      <c r="M16" s="119" t="s">
+      <c r="J17" s="69" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A17" s="124"/>
-      <c r="B17" s="124"/>
-      <c r="C17" s="68" t="s">
-        <v>133</v>
-      </c>
-      <c r="D17" s="124"/>
-      <c r="E17" s="120"/>
-      <c r="F17" s="124"/>
-      <c r="G17" s="124"/>
-      <c r="H17" s="69" t="s">
+      <c r="K17" s="69" t="s">
         <v>138</v>
       </c>
-      <c r="I17" s="69" t="s">
+      <c r="L17" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="J17" s="69" t="s">
-        <v>140</v>
-      </c>
-      <c r="K17" s="69" t="s">
-        <v>141</v>
-      </c>
-      <c r="L17" s="70" t="s">
-        <v>142</v>
-      </c>
-      <c r="M17" s="124"/>
+      <c r="M17" s="123"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18" s="71">
         <v>1</v>
       </c>
       <c r="B18" s="72" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C18" s="73" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D18" s="74" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E18" s="74"/>
       <c r="F18" s="97" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G18" s="74"/>
       <c r="H18" s="74"/>
@@ -5552,13 +5576,13 @@
         <v>2</v>
       </c>
       <c r="B19" s="72" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C19" s="73" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D19" s="74" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E19" s="74"/>
       <c r="F19" s="97"/>
@@ -5575,11 +5599,11 @@
         <v>3</v>
       </c>
       <c r="B20" s="76" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C20" s="54"/>
       <c r="D20" s="77" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E20" s="77"/>
       <c r="F20" s="98"/>
@@ -5596,11 +5620,11 @@
         <v>4</v>
       </c>
       <c r="B21" s="79" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C21" s="80"/>
       <c r="D21" s="81" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E21" s="81"/>
       <c r="F21" s="101"/>
@@ -5617,14 +5641,14 @@
         <v>5</v>
       </c>
       <c r="B22" s="79" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C22" s="80"/>
       <c r="D22" s="81" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E22" s="81" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="F22" s="99"/>
       <c r="G22" s="81"/>
@@ -5640,11 +5664,11 @@
         <v>6</v>
       </c>
       <c r="B23" s="79" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C23" s="80"/>
       <c r="D23" s="81" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E23" s="81"/>
       <c r="F23" s="99"/>
@@ -5661,11 +5685,11 @@
         <v>7</v>
       </c>
       <c r="B24" s="79" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C24" s="80"/>
       <c r="D24" s="81" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="E24" s="81"/>
       <c r="F24" s="99"/>
@@ -5985,7 +6009,7 @@
   <dimension ref="A1:R48"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -6022,7 +6046,7 @@
         <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
@@ -6052,7 +6076,7 @@
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="59" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D6" s="37"/>
       <c r="E6" s="108"/>
@@ -6065,7 +6089,7 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="59" t="s">
-        <v>108</v>
+        <v>218</v>
       </c>
       <c r="D7" s="37"/>
       <c r="E7" s="108"/>
@@ -6091,11 +6115,11 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="90" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D9" s="104"/>
       <c r="E9" s="29"/>
@@ -6104,7 +6128,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="63" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="59"/>
@@ -6114,7 +6138,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="63" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="59"/>
@@ -6124,7 +6148,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="63" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="59"/>
@@ -6134,7 +6158,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="63" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="59"/>
@@ -6144,7 +6168,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="63" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="90"/>
@@ -6154,7 +6178,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="63" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="90"/>
@@ -6164,7 +6188,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="63" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="90"/>
@@ -6174,11 +6198,11 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A17" s="63" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="59" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D17" s="37"/>
       <c r="E17" s="61"/>
@@ -6196,11 +6220,11 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="59" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="D19" s="37"/>
       <c r="E19" s="61"/>
@@ -6236,50 +6260,50 @@
       <c r="R22" s="41"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A23" s="114" t="s">
+      <c r="A23" s="113" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="114" t="s">
+      <c r="B23" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="116" t="s">
+      <c r="C23" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="114" t="s">
+      <c r="D23" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="119" t="s">
-        <v>193</v>
-      </c>
-      <c r="F23" s="114" t="s">
+      <c r="E23" s="118" t="s">
+        <v>190</v>
+      </c>
+      <c r="F23" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="114" t="s">
-        <v>128</v>
-      </c>
-      <c r="H23" s="117" t="s">
+      <c r="G23" s="113" t="s">
+        <v>125</v>
+      </c>
+      <c r="H23" s="116" t="s">
         <v>78</v>
       </c>
-      <c r="I23" s="118"/>
-      <c r="J23" s="117" t="s">
+      <c r="I23" s="117"/>
+      <c r="J23" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="K23" s="118"/>
+      <c r="K23" s="117"/>
       <c r="L23" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="M23" s="114" t="s">
+      <c r="M23" s="113" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A24" s="115"/>
-      <c r="B24" s="115"/>
-      <c r="C24" s="115"/>
-      <c r="D24" s="115"/>
-      <c r="E24" s="120"/>
-      <c r="F24" s="115"/>
-      <c r="G24" s="115"/>
+      <c r="A24" s="114"/>
+      <c r="B24" s="114"/>
+      <c r="C24" s="114"/>
+      <c r="D24" s="114"/>
+      <c r="E24" s="119"/>
+      <c r="F24" s="114"/>
+      <c r="G24" s="114"/>
       <c r="H24" s="31" t="s">
         <v>82</v>
       </c>
@@ -6295,7 +6319,7 @@
       <c r="L24" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="M24" s="115"/>
+      <c r="M24" s="114"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A25" s="7">
@@ -6308,11 +6332,11 @@
         <v>100</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E25" s="25"/>
       <c r="F25" s="92" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G25" s="25"/>
       <c r="H25" s="25">
@@ -6338,7 +6362,7 @@
         <v>102</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E26" s="26"/>
       <c r="F26" s="93"/>
@@ -6364,7 +6388,7 @@
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="27" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E27" s="27"/>
       <c r="F27" s="94"/>
@@ -6388,7 +6412,7 @@
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="27" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E28" s="89"/>
       <c r="F28" s="95"/>
@@ -6410,10 +6434,10 @@
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="27" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="F29" s="94"/>
       <c r="G29" s="27"/>
@@ -6423,7 +6447,7 @@
       <c r="K29" s="34"/>
       <c r="L29" s="34"/>
       <c r="M29" s="14" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.15">
@@ -6436,7 +6460,7 @@
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="27" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E30" s="27"/>
       <c r="F30" s="94"/>
@@ -6454,11 +6478,11 @@
         <v>7</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="27" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="E31" s="27"/>
       <c r="F31" s="94"/>
@@ -6788,7 +6812,7 @@
   <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -6825,7 +6849,7 @@
         <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
@@ -6854,7 +6878,7 @@
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="19" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="D6" s="37"/>
       <c r="E6" s="61"/>
@@ -6866,7 +6890,7 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="59" t="s">
-        <v>111</v>
+        <v>222</v>
       </c>
       <c r="D7" s="37"/>
       <c r="E7" s="61"/>
@@ -6890,11 +6914,11 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="90" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D9" s="104"/>
       <c r="E9" s="61"/>
@@ -6903,11 +6927,11 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="63" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B10" s="65"/>
       <c r="C10" s="102" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D10" s="103"/>
       <c r="E10" s="61"/>
@@ -6923,11 +6947,11 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="59" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="D12" s="37"/>
       <c r="E12" s="61"/>
@@ -6940,7 +6964,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="63" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B15" s="64"/>
       <c r="C15" s="64"/>
@@ -6956,85 +6980,85 @@
       <c r="M15" s="65"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A16" s="119" t="s">
+      <c r="A16" s="118" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" s="118" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16" s="118" t="s">
+        <v>110</v>
+      </c>
+      <c r="E16" s="118" t="s">
+        <v>190</v>
+      </c>
+      <c r="F16" s="118" t="s">
+        <v>149</v>
+      </c>
+      <c r="G16" s="118" t="s">
+        <v>148</v>
+      </c>
+      <c r="H16" s="120" t="s">
+        <v>131</v>
+      </c>
+      <c r="I16" s="121"/>
+      <c r="J16" s="122" t="s">
+        <v>132</v>
+      </c>
+      <c r="K16" s="121"/>
+      <c r="L16" s="66" t="s">
+        <v>133</v>
+      </c>
+      <c r="M16" s="118" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A17" s="123"/>
+      <c r="B17" s="123"/>
+      <c r="C17" s="68" t="s">
         <v>130</v>
       </c>
-      <c r="B16" s="119" t="s">
-        <v>131</v>
-      </c>
-      <c r="C16" s="67" t="s">
-        <v>132</v>
-      </c>
-      <c r="D16" s="119" t="s">
-        <v>113</v>
-      </c>
-      <c r="E16" s="119" t="s">
-        <v>193</v>
-      </c>
-      <c r="F16" s="119" t="s">
-        <v>152</v>
-      </c>
-      <c r="G16" s="119" t="s">
-        <v>151</v>
-      </c>
-      <c r="H16" s="121" t="s">
-        <v>134</v>
-      </c>
-      <c r="I16" s="122"/>
-      <c r="J16" s="123" t="s">
+      <c r="D17" s="123"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="123"/>
+      <c r="G17" s="123"/>
+      <c r="H17" s="69" t="s">
         <v>135</v>
       </c>
-      <c r="K16" s="122"/>
-      <c r="L16" s="66" t="s">
+      <c r="I17" s="69" t="s">
         <v>136</v>
       </c>
-      <c r="M16" s="119" t="s">
+      <c r="J17" s="69" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A17" s="124"/>
-      <c r="B17" s="124"/>
-      <c r="C17" s="68" t="s">
-        <v>133</v>
-      </c>
-      <c r="D17" s="124"/>
-      <c r="E17" s="120"/>
-      <c r="F17" s="124"/>
-      <c r="G17" s="124"/>
-      <c r="H17" s="69" t="s">
+      <c r="K17" s="69" t="s">
         <v>138</v>
       </c>
-      <c r="I17" s="69" t="s">
+      <c r="L17" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="J17" s="69" t="s">
-        <v>140</v>
-      </c>
-      <c r="K17" s="69" t="s">
-        <v>141</v>
-      </c>
-      <c r="L17" s="70" t="s">
-        <v>142</v>
-      </c>
-      <c r="M17" s="124"/>
+      <c r="M17" s="123"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18" s="71">
         <v>1</v>
       </c>
       <c r="B18" s="72" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C18" s="73" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D18" s="74" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E18" s="74"/>
       <c r="F18" s="97" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G18" s="74"/>
       <c r="H18" s="74"/>
@@ -7049,13 +7073,13 @@
         <v>2</v>
       </c>
       <c r="B19" s="72" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C19" s="73" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D19" s="74" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E19" s="74"/>
       <c r="F19" s="97"/>
@@ -7072,11 +7096,11 @@
         <v>3</v>
       </c>
       <c r="B20" s="76" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C20" s="54"/>
       <c r="D20" s="77" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E20" s="77"/>
       <c r="F20" s="98"/>
@@ -7093,11 +7117,11 @@
         <v>4</v>
       </c>
       <c r="B21" s="79" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C21" s="80"/>
       <c r="D21" s="81" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E21" s="81"/>
       <c r="F21" s="101"/>
@@ -7114,14 +7138,14 @@
         <v>5</v>
       </c>
       <c r="B22" s="79" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C22" s="80"/>
       <c r="D22" s="81" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E22" s="81" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="F22" s="99"/>
       <c r="G22" s="81"/>
@@ -7137,11 +7161,11 @@
         <v>6</v>
       </c>
       <c r="B23" s="79" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C23" s="80"/>
       <c r="D23" s="81" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E23" s="81"/>
       <c r="F23" s="99"/>
@@ -7158,11 +7182,11 @@
         <v>7</v>
       </c>
       <c r="B24" s="79" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C24" s="80"/>
       <c r="D24" s="81" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="E24" s="81"/>
       <c r="F24" s="99"/>
@@ -7481,8 +7505,8 @@
   </sheetPr>
   <dimension ref="A1:R48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -7519,7 +7543,7 @@
         <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
@@ -7549,7 +7573,7 @@
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="59" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="D6" s="37"/>
       <c r="E6" s="61"/>
@@ -7562,7 +7586,7 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="59" t="s">
-        <v>108</v>
+        <v>218</v>
       </c>
       <c r="D7" s="37"/>
       <c r="E7" s="61"/>
@@ -7588,11 +7612,11 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="90" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D9" s="104"/>
       <c r="E9" s="61"/>
@@ -7601,7 +7625,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="63" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="59"/>
@@ -7611,7 +7635,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="63" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="59"/>
@@ -7621,7 +7645,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="63" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="59"/>
@@ -7631,7 +7655,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="63" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="59"/>
@@ -7641,7 +7665,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="63" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="90"/>
@@ -7651,7 +7675,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="63" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="90"/>
@@ -7661,7 +7685,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="63" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="90"/>
@@ -7671,11 +7695,11 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A17" s="63" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="59" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D17" s="37"/>
       <c r="E17" s="61"/>
@@ -7693,11 +7717,11 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="59" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="D19" s="37"/>
       <c r="E19" s="61"/>
@@ -7734,50 +7758,50 @@
       <c r="R22" s="41"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A23" s="114" t="s">
+      <c r="A23" s="113" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="114" t="s">
+      <c r="B23" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="116" t="s">
+      <c r="C23" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="114" t="s">
+      <c r="D23" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="119" t="s">
-        <v>193</v>
-      </c>
-      <c r="F23" s="114" t="s">
+      <c r="E23" s="118" t="s">
+        <v>190</v>
+      </c>
+      <c r="F23" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="114" t="s">
-        <v>128</v>
-      </c>
-      <c r="H23" s="117" t="s">
+      <c r="G23" s="113" t="s">
+        <v>125</v>
+      </c>
+      <c r="H23" s="116" t="s">
         <v>78</v>
       </c>
-      <c r="I23" s="118"/>
-      <c r="J23" s="117" t="s">
+      <c r="I23" s="117"/>
+      <c r="J23" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="K23" s="118"/>
+      <c r="K23" s="117"/>
       <c r="L23" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="M23" s="114" t="s">
+      <c r="M23" s="113" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A24" s="115"/>
-      <c r="B24" s="115"/>
-      <c r="C24" s="115"/>
-      <c r="D24" s="115"/>
-      <c r="E24" s="120"/>
-      <c r="F24" s="115"/>
-      <c r="G24" s="115"/>
+      <c r="A24" s="114"/>
+      <c r="B24" s="114"/>
+      <c r="C24" s="114"/>
+      <c r="D24" s="114"/>
+      <c r="E24" s="119"/>
+      <c r="F24" s="114"/>
+      <c r="G24" s="114"/>
       <c r="H24" s="31" t="s">
         <v>82</v>
       </c>
@@ -7793,7 +7817,7 @@
       <c r="L24" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="M24" s="115"/>
+      <c r="M24" s="114"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A25" s="7">
@@ -7806,11 +7830,11 @@
         <v>100</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E25" s="25"/>
       <c r="F25" s="92" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G25" s="25"/>
       <c r="H25" s="25">
@@ -7836,7 +7860,7 @@
         <v>102</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E26" s="26"/>
       <c r="F26" s="93"/>
@@ -7862,7 +7886,7 @@
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="27" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E27" s="27"/>
       <c r="F27" s="94"/>
@@ -7886,7 +7910,7 @@
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="27" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E28" s="89"/>
       <c r="F28" s="95"/>
@@ -7908,10 +7932,10 @@
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="27" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="F29" s="94"/>
       <c r="G29" s="27"/>
@@ -7921,7 +7945,7 @@
       <c r="K29" s="34"/>
       <c r="L29" s="34"/>
       <c r="M29" s="14" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.15">
@@ -7934,7 +7958,7 @@
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="27" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E30" s="27"/>
       <c r="F30" s="94"/>
@@ -7952,11 +7976,11 @@
         <v>7</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="27" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="E31" s="27"/>
       <c r="F31" s="94"/>
@@ -8286,7 +8310,7 @@
   <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -8323,7 +8347,7 @@
         <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
@@ -8352,7 +8376,7 @@
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="19" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="D6" s="37"/>
       <c r="E6" s="61"/>
@@ -8364,7 +8388,7 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="59" t="s">
-        <v>111</v>
+        <v>222</v>
       </c>
       <c r="D7" s="37"/>
       <c r="E7" s="61"/>
@@ -8388,11 +8412,11 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="90" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D9" s="104"/>
       <c r="E9" s="61"/>
@@ -8401,11 +8425,11 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="63" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B10" s="65"/>
       <c r="C10" s="102" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D10" s="103"/>
       <c r="E10" s="61"/>
@@ -8421,11 +8445,11 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="59" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="D12" s="37"/>
       <c r="E12" s="61"/>
@@ -8439,7 +8463,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="63" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B15" s="64"/>
       <c r="C15" s="64"/>
@@ -8455,85 +8479,85 @@
       <c r="M15" s="65"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A16" s="119" t="s">
+      <c r="A16" s="118" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" s="118" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16" s="118" t="s">
+        <v>110</v>
+      </c>
+      <c r="E16" s="118" t="s">
+        <v>190</v>
+      </c>
+      <c r="F16" s="118" t="s">
+        <v>149</v>
+      </c>
+      <c r="G16" s="118" t="s">
+        <v>148</v>
+      </c>
+      <c r="H16" s="120" t="s">
+        <v>131</v>
+      </c>
+      <c r="I16" s="121"/>
+      <c r="J16" s="122" t="s">
+        <v>132</v>
+      </c>
+      <c r="K16" s="121"/>
+      <c r="L16" s="66" t="s">
+        <v>133</v>
+      </c>
+      <c r="M16" s="118" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A17" s="123"/>
+      <c r="B17" s="123"/>
+      <c r="C17" s="68" t="s">
         <v>130</v>
       </c>
-      <c r="B16" s="119" t="s">
-        <v>131</v>
-      </c>
-      <c r="C16" s="67" t="s">
-        <v>132</v>
-      </c>
-      <c r="D16" s="119" t="s">
-        <v>113</v>
-      </c>
-      <c r="E16" s="119" t="s">
-        <v>193</v>
-      </c>
-      <c r="F16" s="119" t="s">
-        <v>152</v>
-      </c>
-      <c r="G16" s="119" t="s">
-        <v>151</v>
-      </c>
-      <c r="H16" s="121" t="s">
-        <v>134</v>
-      </c>
-      <c r="I16" s="122"/>
-      <c r="J16" s="123" t="s">
+      <c r="D17" s="123"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="123"/>
+      <c r="G17" s="123"/>
+      <c r="H17" s="69" t="s">
         <v>135</v>
       </c>
-      <c r="K16" s="122"/>
-      <c r="L16" s="66" t="s">
+      <c r="I17" s="69" t="s">
         <v>136</v>
       </c>
-      <c r="M16" s="119" t="s">
+      <c r="J17" s="69" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A17" s="124"/>
-      <c r="B17" s="124"/>
-      <c r="C17" s="68" t="s">
-        <v>133</v>
-      </c>
-      <c r="D17" s="124"/>
-      <c r="E17" s="120"/>
-      <c r="F17" s="124"/>
-      <c r="G17" s="124"/>
-      <c r="H17" s="69" t="s">
+      <c r="K17" s="69" t="s">
         <v>138</v>
       </c>
-      <c r="I17" s="69" t="s">
+      <c r="L17" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="J17" s="69" t="s">
-        <v>140</v>
-      </c>
-      <c r="K17" s="69" t="s">
-        <v>141</v>
-      </c>
-      <c r="L17" s="70" t="s">
-        <v>142</v>
-      </c>
-      <c r="M17" s="124"/>
+      <c r="M17" s="123"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18" s="71">
         <v>1</v>
       </c>
       <c r="B18" s="72" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C18" s="73" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D18" s="74" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E18" s="74"/>
       <c r="F18" s="97" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G18" s="74"/>
       <c r="H18" s="74"/>
@@ -8548,13 +8572,13 @@
         <v>2</v>
       </c>
       <c r="B19" s="72" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C19" s="73" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D19" s="74" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E19" s="74"/>
       <c r="F19" s="97"/>
@@ -8571,11 +8595,11 @@
         <v>3</v>
       </c>
       <c r="B20" s="76" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C20" s="54"/>
       <c r="D20" s="77" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E20" s="77"/>
       <c r="F20" s="98"/>
@@ -8592,11 +8616,11 @@
         <v>4</v>
       </c>
       <c r="B21" s="79" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C21" s="80"/>
       <c r="D21" s="81" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E21" s="81"/>
       <c r="F21" s="101"/>
@@ -8613,14 +8637,14 @@
         <v>5</v>
       </c>
       <c r="B22" s="79" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C22" s="80"/>
       <c r="D22" s="81" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E22" s="81" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F22" s="99"/>
       <c r="G22" s="81"/>
@@ -8636,11 +8660,11 @@
         <v>6</v>
       </c>
       <c r="B23" s="79" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C23" s="80"/>
       <c r="D23" s="81" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E23" s="81"/>
       <c r="F23" s="99"/>
@@ -8657,11 +8681,11 @@
         <v>7</v>
       </c>
       <c r="B24" s="79" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C24" s="80"/>
       <c r="D24" s="81" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="E24" s="81"/>
       <c r="F24" s="99"/>
@@ -8981,7 +9005,7 @@
   <dimension ref="A1:R48"/>
   <sheetViews>
     <sheetView topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -9018,7 +9042,7 @@
         <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
@@ -9051,7 +9075,7 @@
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="59" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="D6" s="37"/>
       <c r="E6" s="61"/>
@@ -9064,7 +9088,7 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="59" t="s">
-        <v>108</v>
+        <v>218</v>
       </c>
       <c r="D7" s="37"/>
       <c r="E7" s="61"/>
@@ -9090,11 +9114,11 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="90" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D9" s="104"/>
       <c r="E9" s="61"/>
@@ -9103,7 +9127,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="63" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="59"/>
@@ -9113,7 +9137,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="63" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="59"/>
@@ -9123,7 +9147,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="63" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="59"/>
@@ -9133,7 +9157,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="63" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="59"/>
@@ -9143,7 +9167,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="63" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="90"/>
@@ -9153,7 +9177,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="63" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="90"/>
@@ -9163,7 +9187,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="63" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="90"/>
@@ -9173,11 +9197,11 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A17" s="63" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="59" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D17" s="37"/>
       <c r="E17" s="61"/>
@@ -9195,11 +9219,11 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="59" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="D19" s="37"/>
       <c r="E19" s="61"/>
@@ -9237,50 +9261,50 @@
       <c r="R22" s="41"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A23" s="114" t="s">
+      <c r="A23" s="113" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="114" t="s">
+      <c r="B23" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="116" t="s">
+      <c r="C23" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="114" t="s">
+      <c r="D23" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="119" t="s">
-        <v>193</v>
-      </c>
-      <c r="F23" s="114" t="s">
+      <c r="E23" s="118" t="s">
+        <v>190</v>
+      </c>
+      <c r="F23" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="114" t="s">
-        <v>128</v>
-      </c>
-      <c r="H23" s="117" t="s">
+      <c r="G23" s="113" t="s">
+        <v>125</v>
+      </c>
+      <c r="H23" s="116" t="s">
         <v>78</v>
       </c>
-      <c r="I23" s="118"/>
-      <c r="J23" s="117" t="s">
+      <c r="I23" s="117"/>
+      <c r="J23" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="K23" s="118"/>
+      <c r="K23" s="117"/>
       <c r="L23" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="M23" s="114" t="s">
+      <c r="M23" s="113" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A24" s="115"/>
-      <c r="B24" s="115"/>
-      <c r="C24" s="115"/>
-      <c r="D24" s="115"/>
-      <c r="E24" s="120"/>
-      <c r="F24" s="115"/>
-      <c r="G24" s="115"/>
+      <c r="A24" s="114"/>
+      <c r="B24" s="114"/>
+      <c r="C24" s="114"/>
+      <c r="D24" s="114"/>
+      <c r="E24" s="119"/>
+      <c r="F24" s="114"/>
+      <c r="G24" s="114"/>
       <c r="H24" s="31" t="s">
         <v>82</v>
       </c>
@@ -9296,7 +9320,7 @@
       <c r="L24" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="M24" s="115"/>
+      <c r="M24" s="114"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A25" s="7">
@@ -9309,11 +9333,11 @@
         <v>100</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E25" s="25"/>
       <c r="F25" s="92" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G25" s="25"/>
       <c r="H25" s="25">
@@ -9339,7 +9363,7 @@
         <v>102</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E26" s="26"/>
       <c r="F26" s="93"/>
@@ -9365,7 +9389,7 @@
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="27" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E27" s="27"/>
       <c r="F27" s="94"/>
@@ -9389,7 +9413,7 @@
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="27" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E28" s="89"/>
       <c r="F28" s="95"/>
@@ -9411,10 +9435,10 @@
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="27" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="F29" s="94"/>
       <c r="G29" s="27"/>
@@ -9424,7 +9448,7 @@
       <c r="K29" s="34"/>
       <c r="L29" s="34"/>
       <c r="M29" s="14" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.15">
@@ -9437,7 +9461,7 @@
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="27" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E30" s="27"/>
       <c r="F30" s="94"/>
@@ -9455,11 +9479,11 @@
         <v>7</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="27" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="E31" s="27"/>
       <c r="F31" s="94"/>
@@ -9789,7 +9813,7 @@
   <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -9826,7 +9850,7 @@
         <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
@@ -9855,7 +9879,7 @@
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="19" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="D6" s="37"/>
       <c r="E6" s="61"/>
@@ -9867,7 +9891,7 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="59" t="s">
-        <v>111</v>
+        <v>222</v>
       </c>
       <c r="D7" s="37"/>
       <c r="E7" s="61"/>
@@ -9891,11 +9915,11 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="90" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D9" s="104"/>
       <c r="E9" s="61"/>
@@ -9904,11 +9928,11 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="63" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B10" s="65"/>
       <c r="C10" s="102" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D10" s="103"/>
       <c r="E10" s="61"/>
@@ -9924,11 +9948,11 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="59" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="D12" s="37"/>
       <c r="E12" s="61"/>
@@ -9941,7 +9965,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="63" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B15" s="64"/>
       <c r="C15" s="64"/>
@@ -9957,85 +9981,85 @@
       <c r="M15" s="65"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A16" s="119" t="s">
+      <c r="A16" s="118" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" s="118" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16" s="118" t="s">
+        <v>110</v>
+      </c>
+      <c r="E16" s="118" t="s">
+        <v>190</v>
+      </c>
+      <c r="F16" s="118" t="s">
+        <v>149</v>
+      </c>
+      <c r="G16" s="118" t="s">
+        <v>148</v>
+      </c>
+      <c r="H16" s="120" t="s">
+        <v>131</v>
+      </c>
+      <c r="I16" s="121"/>
+      <c r="J16" s="122" t="s">
+        <v>132</v>
+      </c>
+      <c r="K16" s="121"/>
+      <c r="L16" s="66" t="s">
+        <v>133</v>
+      </c>
+      <c r="M16" s="118" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A17" s="123"/>
+      <c r="B17" s="123"/>
+      <c r="C17" s="68" t="s">
         <v>130</v>
       </c>
-      <c r="B16" s="119" t="s">
-        <v>131</v>
-      </c>
-      <c r="C16" s="67" t="s">
-        <v>132</v>
-      </c>
-      <c r="D16" s="119" t="s">
-        <v>113</v>
-      </c>
-      <c r="E16" s="119" t="s">
-        <v>193</v>
-      </c>
-      <c r="F16" s="119" t="s">
-        <v>152</v>
-      </c>
-      <c r="G16" s="119" t="s">
-        <v>151</v>
-      </c>
-      <c r="H16" s="121" t="s">
-        <v>134</v>
-      </c>
-      <c r="I16" s="122"/>
-      <c r="J16" s="123" t="s">
+      <c r="D17" s="123"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="123"/>
+      <c r="G17" s="123"/>
+      <c r="H17" s="69" t="s">
         <v>135</v>
       </c>
-      <c r="K16" s="122"/>
-      <c r="L16" s="66" t="s">
+      <c r="I17" s="69" t="s">
         <v>136</v>
       </c>
-      <c r="M16" s="119" t="s">
+      <c r="J17" s="69" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A17" s="124"/>
-      <c r="B17" s="124"/>
-      <c r="C17" s="68" t="s">
-        <v>133</v>
-      </c>
-      <c r="D17" s="124"/>
-      <c r="E17" s="120"/>
-      <c r="F17" s="124"/>
-      <c r="G17" s="124"/>
-      <c r="H17" s="69" t="s">
+      <c r="K17" s="69" t="s">
         <v>138</v>
       </c>
-      <c r="I17" s="69" t="s">
+      <c r="L17" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="J17" s="69" t="s">
-        <v>140</v>
-      </c>
-      <c r="K17" s="69" t="s">
-        <v>141</v>
-      </c>
-      <c r="L17" s="70" t="s">
-        <v>142</v>
-      </c>
-      <c r="M17" s="124"/>
+      <c r="M17" s="123"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18" s="71">
         <v>1</v>
       </c>
       <c r="B18" s="72" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C18" s="73" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D18" s="74" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E18" s="74"/>
       <c r="F18" s="97" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G18" s="74"/>
       <c r="H18" s="74"/>
@@ -10050,13 +10074,13 @@
         <v>2</v>
       </c>
       <c r="B19" s="72" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C19" s="73" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D19" s="74" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E19" s="74"/>
       <c r="F19" s="97"/>
@@ -10073,11 +10097,11 @@
         <v>3</v>
       </c>
       <c r="B20" s="76" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C20" s="54"/>
       <c r="D20" s="77" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E20" s="77"/>
       <c r="F20" s="98"/>
@@ -10094,11 +10118,11 @@
         <v>4</v>
       </c>
       <c r="B21" s="79" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C21" s="80"/>
       <c r="D21" s="81" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E21" s="81"/>
       <c r="F21" s="101"/>
@@ -10115,14 +10139,14 @@
         <v>5</v>
       </c>
       <c r="B22" s="79" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C22" s="80"/>
       <c r="D22" s="81" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E22" s="81" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="F22" s="99"/>
       <c r="G22" s="81"/>
@@ -10138,11 +10162,11 @@
         <v>6</v>
       </c>
       <c r="B23" s="79" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C23" s="80"/>
       <c r="D23" s="81" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E23" s="81"/>
       <c r="F23" s="99"/>
@@ -10159,11 +10183,11 @@
         <v>7</v>
       </c>
       <c r="B24" s="79" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C24" s="80"/>
       <c r="D24" s="81" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="E24" s="81"/>
       <c r="F24" s="99"/>
@@ -10443,7 +10467,7 @@
     <mergeCell ref="E16:E17"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C8">
       <formula1>Validate実装パターン</formula1>
     </dataValidation>
@@ -10456,7 +10480,7 @@
   </headerFooter>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>config!$C$5:$C$6</xm:f>
